--- a/testtable.xlsx
+++ b/testtable.xlsx
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1110471826561445</v>
+        <v>-0.8876244311206933</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.14962033423195</v>
+        <v>3.303102249309488</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6015276657855185</v>
+        <v>2.8256638857137</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5604416249335998</v>
+        <v>1.889969670632263</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5579680106421199</v>
+        <v>0.265497045488648</v>
       </c>
       <c r="C4" t="n">
-        <v>1.101141535541464</v>
+        <v>-0.5098550339161856</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2074107844854237</v>
+        <v>-0.1458940689842957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02571255832341547</v>
+        <v>0.2503186867802693</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4939883371018636</v>
+        <v>0.6358597123169452</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6727905458939456</v>
+        <v>1.46678017091365</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4242299337678848</v>
+        <v>0.5786472529070168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4406114827346923</v>
+        <v>1.405499831944974</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2442727335761381</v>
+        <v>1.505817941298041</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2808843516057623</v>
+        <v>-0.06285030609652982</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6422637747424316</v>
+        <v>-0.9740170942882608</v>
       </c>
       <c r="C9" t="n">
-        <v>1.222239382888028</v>
+        <v>-1.27007453784359</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8590202440152936</v>
+        <v>1.056528921933525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4188788942253678</v>
+        <v>-0.6692648354886601</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2404767430397455</v>
+        <v>-0.4622363803122383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7424127484061118</v>
+        <v>-1.433643089382423</v>
       </c>
     </row>
   </sheetData>
